--- a/Benchmarks/dotNetRDF Read Write Benchmarks.xlsx
+++ b/Benchmarks/dotNetRDF Read Write Benchmarks.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="11985"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Parsing Benchmark" sheetId="1" r:id="rId1"/>
+    <sheet name="Writing Benchmark" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>Parser</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Writer</t>
   </si>
   <si>
-    <t>Avg Write Time (seconds)</t>
-  </si>
-  <si>
-    <t>Avg Write Speed (Triples/second)</t>
-  </si>
-  <si>
     <t>0.1.2 Alpha</t>
   </si>
   <si>
@@ -87,20 +81,47 @@
     <t>RdfJsonWriter</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>0.3.0 Alpha</t>
   </si>
   <si>
     <t>HtmlWriter</t>
+  </si>
+  <si>
+    <t>0.4.1 Beta</t>
+  </si>
+  <si>
+    <t>Please note that the data being read/written is purposefully atypical and designed to simulate a worse case scenario for reading and writing</t>
+  </si>
+  <si>
+    <t>Average Write Time (seconds)</t>
+  </si>
+  <si>
+    <t>Average Write Speed (Triples/second)</t>
+  </si>
+  <si>
+    <t>RdfXmlParser (DOM)</t>
+  </si>
+  <si>
+    <t>RdfXmlParser (Streaming)</t>
+  </si>
+  <si>
+    <t>RdfJsonParser</t>
+  </si>
+  <si>
+    <t>PrettyRdfXmlWriter</t>
+  </si>
+  <si>
+    <t>0.4.1 (High Speed Mode)</t>
+  </si>
+  <si>
+    <t>0.4.1 Beta (No High Speed Mode)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +144,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,20 +179,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -454,399 +527,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="1" spans="1:9" ht="21">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="32.25" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>14813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>14078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>17761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>17152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>14088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>17948</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>17120</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8212</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="23">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10831</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="23">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>13007</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="23">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>12284</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C22" s="7">
+        <v>4847</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="23">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>14813</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>14078</v>
-      </c>
-      <c r="E6" s="4">
-        <v>14088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>17761</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>17948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>17152</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>17120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8310</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>102753</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>100765</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>86475</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>102965</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>65746</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>57267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>103263</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>65945</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>55218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>102901</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>65053</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>81566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4">
-        <v>909</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>27589</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>58</v>
-      </c>
-      <c r="C18" s="4">
-        <v>169</v>
-      </c>
-      <c r="D18">
-        <v>56</v>
-      </c>
-      <c r="E18" s="4">
-        <v>178</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>23554</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>20885</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>16477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>91457</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>95310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>28941</v>
-      </c>
+      <c r="C23" s="7">
+        <v>5843</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
+      <c r="A24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="23">
+        <v>0</v>
+      </c>
+      <c r="C24" s="24">
+        <v>12611</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F11:G11"/>
+  <mergeCells count="10">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -855,12 +848,548 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>102753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>102965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>103263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>102901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>23554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>100765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>65746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>65945</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>65053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>91457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>86475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>57267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>55218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>81566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>27589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>16477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>95310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>28941</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="26">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>80593</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="26">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>30437</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="26">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>29325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="26">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>29460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>22440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>13259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>38156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>28605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="26">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>81195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="26">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>81208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="26">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>76382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="26">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>76934</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <v>22558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>13186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
+        <v>18387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <v>38955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>28720</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A23:C23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
